--- a/catupload/src/main/resources/datas/users.xlsx
+++ b/catupload/src/main/resources/datas/users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="2895"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="6855"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,6 +58,30 @@
   </si>
   <si>
     <t>104460978@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chengzhanbo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程占波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1243434698@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -423,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F4" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -478,12 +502,33 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>